--- a/MK.xlsx
+++ b/MK.xlsx
@@ -1,187 +1,217 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Ответы на форму (1)" sheetId="1" r:id="rId4"/>
+    <sheet name="Ответы на форму (1)" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="51">
   <si>
-    <t>Отметка времени</t>
-  </si>
-  <si>
-    <t>Сколько вам лет?</t>
-  </si>
-  <si>
-    <t>Чем вы занимаетесь?</t>
-  </si>
-  <si>
-    <t>Ваш пол:</t>
-  </si>
-  <si>
-    <t>Какие товары вас интересуют (выберите 2 варианта):</t>
-  </si>
-  <si>
-    <t>Есть ли у вас дети?</t>
-  </si>
-  <si>
-    <t>В какой местности вы живете?</t>
-  </si>
-  <si>
-    <t>Как часто вы посещаете этот магазин?</t>
-  </si>
-  <si>
-    <t>Вас устраивают цены на товары?</t>
-  </si>
-  <si>
-    <t>Какой отдых вы предпочитаете?</t>
-  </si>
-  <si>
-    <t>Есть ли у вас автомобиль?</t>
-  </si>
-  <si>
-    <t>26 и больше</t>
-  </si>
-  <si>
-    <t>работаю</t>
-  </si>
-  <si>
-    <t>мужской</t>
-  </si>
-  <si>
-    <t>Продукты питания, Бытовая техника</t>
-  </si>
-  <si>
-    <t>нет</t>
-  </si>
-  <si>
-    <t>город</t>
-  </si>
-  <si>
-    <t>каждые 2 дня</t>
-  </si>
-  <si>
-    <t>да</t>
-  </si>
-  <si>
-    <t>Вариант 3</t>
-  </si>
-  <si>
-    <t>10-18</t>
-  </si>
-  <si>
-    <t>учусь</t>
-  </si>
-  <si>
-    <t>раз в месяц</t>
-  </si>
-  <si>
-    <t>активный</t>
-  </si>
-  <si>
-    <t>Продукты питания, Товары для активного образа жизни</t>
-  </si>
-  <si>
-    <t>женский</t>
-  </si>
-  <si>
-    <t>Бытовая техника, для дачи</t>
-  </si>
-  <si>
-    <t>село</t>
-  </si>
-  <si>
-    <t>за городом</t>
-  </si>
-  <si>
-    <t>Продукты питания, Бытовая техника, Товары для активного образа жизни, для дачи, детские товары</t>
-  </si>
-  <si>
-    <t>раз в неделю</t>
-  </si>
-  <si>
-    <t>Продукты питания, бытовая химия</t>
-  </si>
-  <si>
-    <t>Продукты питания, для дачи</t>
-  </si>
-  <si>
-    <t>учусь, работаю</t>
-  </si>
-  <si>
-    <t>Бытовая техника, Товары для активного образа жизни</t>
-  </si>
-  <si>
-    <t>для дачи, детские товары</t>
-  </si>
-  <si>
-    <t>поселок</t>
-  </si>
-  <si>
-    <t>19-25</t>
-  </si>
-  <si>
-    <t>учусь, работаю, ни то, ни то</t>
-  </si>
-  <si>
-    <t>Продукты питания, Бытовая техника, Товары для активного образа жизни, для дачи, детские товары, бытовая химия</t>
-  </si>
-  <si>
-    <t>Товары для активного образа жизни, для дачи</t>
-  </si>
-  <si>
-    <t>Продукты питания, Бытовая техника, для дачи</t>
-  </si>
-  <si>
-    <t>детские товары</t>
-  </si>
-  <si>
-    <t>учусь, ни то, ни то</t>
-  </si>
-  <si>
-    <t>для дачи</t>
-  </si>
-  <si>
-    <t>пригород</t>
-  </si>
-  <si>
-    <t>Продукты питания, Бытовая техника, Товары для активного образа жизни, для дачи</t>
-  </si>
-  <si>
-    <t>Продукты питания, Товары для активного образа жизни, для дачи</t>
-  </si>
-  <si>
-    <t>ни то, ни то</t>
-  </si>
-  <si>
-    <t>детские товары, бытовая химия</t>
-  </si>
-  <si>
-    <t>бытовая химия</t>
+    <t xml:space="preserve">Отметка времени</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сколько вам лет?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чем вы занимаетесь?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ваш пол:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие товары вас интересуют (выберите 2 варианта):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Есть ли у вас дети?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В какой местности вы живете?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как часто вы посещаете этот магазин?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вас устраивают цены на товары?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какой отдых вы предпочитаете?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Есть ли у вас автомобиль?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26 и больше</t>
+  </si>
+  <si>
+    <t xml:space="preserve">работаю</t>
+  </si>
+  <si>
+    <t xml:space="preserve">мужской</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Продукты питания, Бытовая техника</t>
+  </si>
+  <si>
+    <t xml:space="preserve">нет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">город</t>
+  </si>
+  <si>
+    <t xml:space="preserve">каждые 2 дня</t>
+  </si>
+  <si>
+    <t xml:space="preserve">да</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вариант 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">учусь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">раз в месяц</t>
+  </si>
+  <si>
+    <t xml:space="preserve">активный</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Продукты питания, Товары для активного образа жизни</t>
+  </si>
+  <si>
+    <t xml:space="preserve">женский</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бытовая техника, для дачи</t>
+  </si>
+  <si>
+    <t xml:space="preserve">село</t>
+  </si>
+  <si>
+    <t xml:space="preserve">за городом</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Продукты питания, Бытовая техника, Товары для активного образа жизни, для дачи, детские товары</t>
+  </si>
+  <si>
+    <t xml:space="preserve">раз в неделю</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Продукты питания, бытовая химия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Продукты питания, для дачи</t>
+  </si>
+  <si>
+    <t xml:space="preserve">учусь, работаю</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бытовая техника, Товары для активного образа жизни</t>
+  </si>
+  <si>
+    <t xml:space="preserve">для дачи, детские товары</t>
+  </si>
+  <si>
+    <t xml:space="preserve">поселок</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">учусь, работаю, ни то, ни то</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Продукты питания, Бытовая техника, Товары для активного образа жизни, для дачи, детские товары, бытовая химия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Товары для активного образа жизни, для дачи</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Продукты питания, Бытовая техника, для дачи</t>
+  </si>
+  <si>
+    <t xml:space="preserve">детские товары</t>
+  </si>
+  <si>
+    <t xml:space="preserve">учусь, ни то, ни то</t>
+  </si>
+  <si>
+    <t xml:space="preserve">для дачи</t>
+  </si>
+  <si>
+    <t xml:space="preserve">пригород</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Продукты питания, Бытовая техника, Товары для активного образа жизни, для дачи</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Продукты питания, Товары для активного образа жизни, для дачи</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ни то, ни то</t>
+  </si>
+  <si>
+    <t xml:space="preserve">детские товары, бытовая химия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">бытовая химия</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="5">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <color theme="1"/>
+      <sz val="10"/>
       <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -189,254 +219,96 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
-  <a:themeElements>
-    <a:clrScheme name="Sheets">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="000000"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4285F4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="EA4335"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="FBBC04"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="34A853"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="FF6D01"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="46BDC6"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="1155CC"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="1155CC"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Sheets">
-      <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" min="1" max="4" width="21.57"/>
-    <col customWidth="1" min="5" max="5" width="54.57"/>
-    <col customWidth="1" min="6" max="6" width="21.57"/>
-    <col customWidth="1" min="7" max="7" width="41.57"/>
-    <col customWidth="1" min="8" max="8" width="56.0"/>
-    <col customWidth="1" min="9" max="17" width="21.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="21.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="54.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="41.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="56.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="9" style="0" width="21.57"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -471,9 +343,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2">
-        <v>43934.71759847223</v>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
+        <v>43934.7175984722</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>11</v>
@@ -506,9 +378,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2">
-        <v>43934.71764136574</v>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="n">
+        <v>43934.7176413657</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>20</v>
@@ -541,9 +413,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2">
-        <v>43934.71765381945</v>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="n">
+        <v>43934.7176538194</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>20</v>
@@ -576,9 +448,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2">
-        <v>43934.71772346065</v>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
+        <v>43934.7177234607</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>11</v>
@@ -611,9 +483,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2">
-        <v>43934.71778746528</v>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
+        <v>43934.7177874653</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>20</v>
@@ -646,9 +518,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2">
-        <v>43934.717797881945</v>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
+        <v>43934.717797882</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>20</v>
@@ -681,9 +553,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="2">
-        <v>43934.71782769676</v>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
+        <v>43934.7178276968</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>20</v>
@@ -713,9 +585,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="2">
-        <v>43934.717885729166</v>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
+        <v>43934.7178857292</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>11</v>
@@ -748,9 +620,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="2">
-        <v>43934.71805358796</v>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="n">
+        <v>43934.718053588</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>11</v>
@@ -783,9 +655,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="2">
-        <v>43934.71810063657</v>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
+        <v>43934.7181006366</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>20</v>
@@ -818,9 +690,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="2">
-        <v>43934.718189363426</v>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="n">
+        <v>43934.7181893634</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>11</v>
@@ -853,9 +725,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="2">
-        <v>43934.71819266204</v>
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="n">
+        <v>43934.718192662</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>20</v>
@@ -888,9 +760,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="2">
-        <v>43934.718282974536</v>
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="n">
+        <v>43934.7182829745</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>20</v>
@@ -923,9 +795,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="2">
-        <v>43934.71853092592</v>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="n">
+        <v>43934.7185309259</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>20</v>
@@ -958,9 +830,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="2">
-        <v>43934.718652951386</v>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="n">
+        <v>43934.7186529514</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>37</v>
@@ -993,9 +865,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="2">
-        <v>43934.71866719908</v>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="n">
+        <v>43934.7186671991</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>20</v>
@@ -1028,9 +900,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="2">
-        <v>43934.718796030094</v>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="n">
+        <v>43934.7187960301</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>11</v>
@@ -1063,9 +935,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="2">
-        <v>43934.71883246528</v>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="n">
+        <v>43934.7188324653</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>20</v>
@@ -1098,9 +970,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="2">
-        <v>43934.718954710646</v>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="n">
+        <v>43934.7189547106</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>37</v>
@@ -1133,9 +1005,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="2">
-        <v>43934.71908921296</v>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="n">
+        <v>43934.719089213</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>20</v>
@@ -1168,9 +1040,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="2">
-        <v>43934.71919719907</v>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="n">
+        <v>43934.7191971991</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>20</v>
@@ -1203,9 +1075,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="2">
-        <v>43934.71922853009</v>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="n">
+        <v>43934.7192285301</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>20</v>
@@ -1235,19 +1107,19 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="2">
-        <v>43934.71932664352</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2">
-        <v>43934.719376168985</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2">
-        <v>43934.71938383102</v>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="n">
+        <v>43934.7193266435</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="n">
+        <v>43934.719376169</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="n">
+        <v>43934.719383831</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>11</v>
@@ -1280,25 +1152,25 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="2">
-        <v>43934.71943324074</v>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="n">
+        <v>43934.7194332407</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="2">
-        <v>43934.71952067129</v>
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="n">
+        <v>43934.7195206713</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="2">
-        <v>43934.71955659722</v>
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="n">
+        <v>43934.7195565972</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>37</v>
@@ -1331,9 +1203,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="2">
-        <v>43934.71962824074</v>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="n">
+        <v>43934.7196282407</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>37</v>
@@ -1342,8 +1214,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="2">
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="n">
         <v>43934.7197127199</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -1377,17 +1249,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="2">
-        <v>43934.71973153936</v>
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="n">
+        <v>43934.7197315394</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="2">
-        <v>43934.72095354166</v>
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="n">
+        <v>43934.7209535417</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>20</v>
@@ -1420,22 +1292,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="2">
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="n">
         <v>43934.7213012037</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="2">
-        <v>43934.721450763886</v>
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="n">
+        <v>43934.7214507639</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="2">
-        <v>43934.721621550925</v>
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="n">
+        <v>43934.7216215509</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>25</v>
@@ -1444,9 +1316,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="2">
-        <v>43934.72183711806</v>
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="n">
+        <v>43934.7218371181</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>20</v>
@@ -1479,12 +1351,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="2">
-        <v>43934.72261427084</v>
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2" t="n">
+        <v>43934.7226142708</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>